--- a/biology/Botanique/Trèfle_strié/Trèfle_strié.xlsx
+++ b/biology/Botanique/Trèfle_strié/Trèfle_strié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_stri%C3%A9</t>
+          <t>Trèfle_strié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium striatum
 Le Trèfle strié (Trifolium striatum) est une plante annuelle du genre Trifolium (trèfles), de la famille des Fabaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_stri%C3%A9</t>
+          <t>Trèfle_strié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La plante mesure 5 à 25 cm, est velue, étalée ou ascendante ; les folioles obovales ou oblongues, à peine denticulées, ont des nervures latérales non arquées en dehors. Les stipules ont la partie libre large, brusquement terminée en pointe sétacée, les supérieures dilatées[2].
-Appareil reproducteur
-L'inflorescence mesure de 10 à 11 mm[3]. Les fleurs sont rosées, petites, se détachant aisément à la maturité, en têtes ovoïdes ou oblongues, sessiles, axillaires et terminales, ordinairement solitaires ; le calice est velu, ovoïde, à la fin renflé-ventru, à gorge ouverte, un peu resserrée, velue, à dents dressées-étalées, raides, en alêne, peu inégales, l'inférieure égalant le tube, la corolle égalant ou dépassant le calice[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante mesure 5 à 25 cm, est velue, étalée ou ascendante ; les folioles obovales ou oblongues, à peine denticulées, ont des nervures latérales non arquées en dehors. Les stipules ont la partie libre large, brusquement terminée en pointe sétacée, les supérieures dilatées.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_stri%C3%A9</t>
+          <t>Trèfle_strié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le trèfle strié est originaire d'Europe, des contours de la méditerranée, d'Asie occidentale, d'Afrique septentrionale[4],[3],[5].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence mesure de 10 à 11 mm. Les fleurs sont rosées, petites, se détachant aisément à la maturité, en têtes ovoïdes ou oblongues, sessiles, axillaires et terminales, ordinairement solitaires ; le calice est velu, ovoïde, à la fin renflé-ventru, à gorge ouverte, un peu resserrée, velue, à dents dressées-étalées, raides, en alêne, peu inégales, l'inférieure égalant le tube, la corolle égalant ou dépassant le calice.
 </t>
         </is>
       </c>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_stri%C3%A9</t>
+          <t>Trèfle_strié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse dans les pelouses et lieux sablonneux[4], les champs et sur les bords de chemins, de préférence sur sols acides[3], jusqu'à 700 m d'altitude.
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trèfle strié est originaire d'Europe, des contours de la méditerranée, d'Asie occidentale, d'Afrique septentrionale.
 </t>
         </is>
       </c>
@@ -590,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_stri%C3%A9</t>
+          <t>Trèfle_strié</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +628,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse dans les pelouses et lieux sablonneux, les champs et sur les bords de chemins, de préférence sur sols acides, jusqu'à 700 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trèfle_strié</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_stri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Basionyme : Trifolium striatum var. brevidens Lange
 Trifolium striatum subsp. brevidens (Lange) Muñoz Rodr.
@@ -623,7 +681,7 @@
 Trifolium striatum subsp. striatum
 Trifolium striatum var. elongatum Lojac.
 Trifolium striatum var. nanum Rouy
-Trifolium striatum var. spinescens Lange[4]</t>
+Trifolium striatum var. spinescens Lange</t>
         </is>
       </c>
     </row>
